--- a/Prototype/PHPSCRIPTS/JASON/calc1.xlsx
+++ b/Prototype/PHPSCRIPTS/JASON/calc1.xlsx
@@ -1,32 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jade Ericson\Documents\GitHub\Forecast-Module-2\Prototype\PHPSCRIPTS\JASON\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -37,31 +35,41 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -351,54 +359,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="B1" s="1">
+        <f>DATE(2015,2,2)</f>
+        <v>42037</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="B2" s="1">
+        <f>EOMONTH(B1,1)</f>
+        <v>42094</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -406,39 +422,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="str">
-        <f>SUM(A1:A10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I13">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Prototype/PHPSCRIPTS/JASON/calc1.xlsx
+++ b/Prototype/PHPSCRIPTS/JASON/calc1.xlsx
@@ -14,6 +14,11 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="deeznuts">OFFSET(Sheet1!$A$1,0,0,COUNTA(Sheet1!$A:$A),1)</definedName>
+    <definedName name="URMUM">OFFSET(Sheet1!$G$8,0,0,COUNTA(Sheet1!$G:$G),1)</definedName>
+    <definedName name="urnutz">OFFSET(Sheet1!$D$1,0,0,COUNTA(Sheet1!$D:$D),1)</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
@@ -360,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,62 +384,195 @@
         <f>DATE(2015,2,2)</f>
         <v>42037</v>
       </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <f>EOMONTH(B1,1)</f>
+        <f>EOMONTH(DATE(2015,2,2),1)</f>
         <v>42094</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
+      <c r="B8">
+        <f ca="1">SUM(urnutz)</f>
+        <v>124</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
       <c r="F8">
         <v>6</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <f ca="1">SUM(URMUM)</f>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>23</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
       <c r="I13">
         <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
